--- a/系统/法院系统/四川/2017年/第四季度/10月成都中院支持/成都中院问题.xlsx
+++ b/系统/法院系统/四川/2017年/第四季度/10月成都中院支持/成都中院问题.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/work/同步文件/办公室同步/系统/法院系统/四川/2017年/第四季度/10月成都中院支持/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="820" windowWidth="27760" windowHeight="15040" tabRatio="500"/>
+    <workbookView xWindow="1035" yWindow="825" windowWidth="27765" windowHeight="15045" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>由于电子签章问题，造成没有在财务系统中打印预收通知书。进而造成当事人没有办法刷卡，无法将钱缴纳到虚拟账号中进行自动匹配。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,14 +459,18 @@
     <rPh sb="10" eb="11">
       <t>zuo</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要专门的打印机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -553,12 +552,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,7 +616,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -652,7 +651,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -829,29 +828,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="45" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.875" style="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -867,10 +866,10 @@
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="42.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -882,12 +881,14 @@
         <v>16</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="42.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -899,10 +900,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="85.5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -914,12 +915,12 @@
         <v>11</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="42.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -931,10 +932,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="42.75">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -948,10 +949,10 @@
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="99.75">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -974,5 +975,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>